--- a/Audio_Classification/ESC-50 Result.xlsx
+++ b/Audio_Classification/ESC-50 Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ESC-50 Model Accuracy and Loss</t>
   </si>
@@ -42,18 +42,24 @@
   <si>
     <t>CNN with Adam optimizer Batch Normalization</t>
   </si>
+  <si>
+    <t>CNN with Adam optimizer Batch Normalization with Max pooling with same padding</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,7 +90,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,21 +112,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,29 +125,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,32 +171,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,13 +254,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,169 +386,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,11 +448,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,23 +490,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,32 +539,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -549,152 +548,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -705,23 +704,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1042,15 +1032,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="26.4285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="14.5714285714286"/>
     <col min="5" max="5" width="9.71428571428571" customWidth="1"/>
@@ -1067,65 +1057,91 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <f>0.71079820029995*100</f>
         <v>71.079820029995</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>1.14700318697869</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>0.72</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>0.75</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>0.71</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <f>0.72854524245959*100</f>
         <v>72.854524245959</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.964718354402517</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>0.75</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>0.78</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="5" ht="45" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>0.767122146308948*100</f>
+        <v>76.7122146308948</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.826868108086973</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6" spans="12:12">
+      <c r="L6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Audio_Classification/ESC-50 Result.xlsx
+++ b/Audio_Classification/ESC-50 Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11535"/>
+    <workbookView windowWidth="18645" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>CNN with Adam optimizer Batch Normalization with Max pooling with same padding</t>
   </si>
   <si>
-    <t>s</t>
+    <t>CNN with Adam optimizer Batch Normalization with Max pooling with same padding + Transfer Learning</t>
   </si>
 </sst>
 </file>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -97,14 +97,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,23 +125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,14 +135,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +150,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,24 +211,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,26 +448,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,30 +504,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -522,17 +513,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,151 +530,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,6 +772,1968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>71.079820029995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.854524245959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.7122146308948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.2946175637393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="978512224"/>
+        <c:axId val="631452943"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="978512224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Trial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631452943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631452943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="978512224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.14700318697869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.964718354402517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.826868108086973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.659043973199731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="574831863"/>
+        <c:axId val="865849499"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="574831863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Trial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865849499"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="865849499"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574831863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="19050" y="2663825"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4613275" y="2670175"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,13 +2994,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="32.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -1139,9 +3101,25 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="6" spans="12:12">
-      <c r="L6" t="s">
+    <row r="6" ht="60" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <f>0.822946175637393*100</f>
+        <v>82.2946175637393</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.659043973199731</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -1150,5 +3128,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>